--- a/Learn.xlsx
+++ b/Learn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonby\IdeaProjects\OneDrive\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ctepa\OneDrive\Рабочий стол\Нирс\2025NIRS_PRAVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3003A86F-D8F8-4458-B25D-F6AC21F19709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE596886-920D-465F-AD0B-16188C94A3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E90ADF6-FF21-44A3-B8EB-1EF4678DEA73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E90ADF6-FF21-44A3-B8EB-1EF4678DEA73}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="353">
   <si>
     <t>Desc</t>
   </si>
@@ -54,94 +45,1045 @@
     <t>Трудовые споры</t>
   </si>
   <si>
+    <t>Защита прав потребителей</t>
+  </si>
+  <si>
+    <t>Соседи постоянно шумят по ночам, что делать?</t>
+  </si>
+  <si>
+    <t>Жилищные споры</t>
+  </si>
+  <si>
+    <t>Мой бывший супруг не платит алименты на ребенка.</t>
+  </si>
+  <si>
+    <t>Семейные споры</t>
+  </si>
+  <si>
+    <t>Мне угрожают коллекторы из-за долга по кредиту.</t>
+  </si>
+  <si>
+    <t>Защита от коллекторов</t>
+  </si>
+  <si>
+    <t>Я попал в ДТП, виновник отказывается возмещать ущерб.</t>
+  </si>
+  <si>
+    <t>Автомобильные споры</t>
+  </si>
+  <si>
+    <t>Мой дом незаконно хотят снести по решению местных властей.</t>
+  </si>
+  <si>
+    <t>Земельные споры</t>
+  </si>
+  <si>
+    <t>Меня обвиняют в преступлении, которого я не совершал.</t>
+  </si>
+  <si>
+    <t>Уголовные дела</t>
+  </si>
+  <si>
+    <t>Мой партнер по бизнесу обманул меня с деньгами.</t>
+  </si>
+  <si>
+    <t>Корпоративные споры</t>
+  </si>
+  <si>
+    <t>Я хочу оформить наследство, но не знаю, с чего начать.</t>
+  </si>
+  <si>
+    <t>Наследственные дела</t>
+  </si>
+  <si>
+    <t>Мне отказали в страховой выплате после аварии.</t>
+  </si>
+  <si>
+    <t>Страховые споры</t>
+  </si>
+  <si>
+    <t>Мой дом затопили соседи сверху, они отказываются возмещать ущерб.</t>
+  </si>
+  <si>
+    <t>Меня уволили с работы без объяснения причин.</t>
+  </si>
+  <si>
+    <t>Я хочу подать в суд на компанию, которая нарушила мои авторские права.</t>
+  </si>
+  <si>
+    <t>Интеллектуальная собственность</t>
+  </si>
+  <si>
+    <t>Мне навязали ненужные услуги в салоне связи.</t>
+  </si>
+  <si>
+    <t>Я хочу оформить развод, но не знаю, как разделить имущество.</t>
+  </si>
+  <si>
+    <t>Мне не возвращают депозит после аренды квартиры.</t>
+  </si>
+  <si>
+    <t>Меня обманули при покупке автомобиля с пробегом.</t>
+  </si>
+  <si>
+    <t>Я хочу оспорить штраф за нарушение ПДД.</t>
+  </si>
+  <si>
+    <t>Административные споры</t>
+  </si>
+  <si>
     <t>Мне продали бракованный товар, а возвращать деньги отказываются.</t>
   </si>
   <si>
-    <t>Защита прав потребителей</t>
-  </si>
-  <si>
-    <t>Соседи постоянно шумят по ночам, что делать?</t>
-  </si>
-  <si>
-    <t>Жилищные споры</t>
-  </si>
-  <si>
-    <t>Мой бывший супруг не платит алименты на ребенка.</t>
-  </si>
-  <si>
-    <t>Семейные споры</t>
-  </si>
-  <si>
-    <t>Мне угрожают коллекторы из-за долга по кредиту.</t>
-  </si>
-  <si>
-    <t>Защита от коллекторов</t>
-  </si>
-  <si>
-    <t>Я попал в ДТП, виновник отказывается возмещать ущерб.</t>
-  </si>
-  <si>
-    <t>Автомобильные споры</t>
-  </si>
-  <si>
-    <t>Мой дом незаконно хотят снести по решению местных властей.</t>
-  </si>
-  <si>
-    <t>Земельные споры</t>
-  </si>
-  <si>
-    <t>Меня обвиняют в преступлении, которого я не совершал.</t>
-  </si>
-  <si>
-    <t>Уголовные дела</t>
-  </si>
-  <si>
-    <t>Мой партнер по бизнесу обманул меня с деньгами.</t>
-  </si>
-  <si>
-    <t>Корпоративные споры</t>
-  </si>
-  <si>
-    <t>Я хочу оформить наследство, но не знаю, с чего начать.</t>
-  </si>
-  <si>
-    <t>Наследственные дела</t>
-  </si>
-  <si>
-    <t>Мне отказали в страховой выплате после аварии.</t>
-  </si>
-  <si>
-    <t>Страховые споры</t>
-  </si>
-  <si>
-    <t>Мой дом затопили соседи сверху, они отказываются возмещать ущерб.</t>
-  </si>
-  <si>
-    <t>Меня уволили с работы без объяснения причин.</t>
-  </si>
-  <si>
-    <t>Я хочу подать в суд на компанию, которая нарушила мои авторские права.</t>
-  </si>
-  <si>
-    <t>Интеллектуальная собственность</t>
-  </si>
-  <si>
-    <t>Мне навязали ненужные услуги в салоне связи.</t>
-  </si>
-  <si>
-    <t>Я хочу оформить развод, но не знаю, как разделить имущество.</t>
-  </si>
-  <si>
-    <t>Мне не возвращают депозит после аренды квартиры.</t>
-  </si>
-  <si>
-    <t>Меня обманули при покупке автомобиля с пробегом.</t>
-  </si>
-  <si>
-    <t>Я хочу оспорить штраф за нарушение ПДД.</t>
-  </si>
-  <si>
-    <t>Административные споры</t>
+    <t>Я взял кредит на ремонт квартиры, но банк навязывает дополнительные страховки, которые я не хочу оформлять.</t>
+  </si>
+  <si>
+    <t>Мой начальник заставляет работать сверхурочно без оплаты.</t>
+  </si>
+  <si>
+    <t>После покупки смартфона в интернет-магазине мне прислали товар не той модели, а вернуть деньги отказываются.</t>
+  </si>
+  <si>
+    <t>Сосед по участку захватил часть моей земли и не реагирует на просьбы вернуть.</t>
+  </si>
+  <si>
+    <t>Меня обвиняют в плагиате статьи, хотя я ее написал сам.</t>
+  </si>
+  <si>
+    <t>Страховая компания отказывается выплачивать компенсацию за поврежденный в аварии автомобиль.</t>
+  </si>
+  <si>
+    <t>Бывшая жена запрещает мне видеться с нашим общим ребенком без веских причин.</t>
+  </si>
+  <si>
+    <t>Коллекторы звонят моим родственникам и угрожают, хотя я уже договорился о погашении долга.</t>
+  </si>
+  <si>
+    <t>Я купил билет на концерт, но мероприятие отменили, а деньги не возвращают.</t>
+  </si>
+  <si>
+    <t>Мой бизнес-партнер без моего согласия взял кредит на имя нашей компании.</t>
+  </si>
+  <si>
+    <t>В новостройке обнаружились скрытые дефекты, застройщик игнорирует претензии.</t>
+  </si>
+  <si>
+    <t>Защита прав дольщиков</t>
+  </si>
+  <si>
+    <t>Мне отказали в больничном, хотя я был на лечении.</t>
+  </si>
+  <si>
+    <t>При покупке тура агентство не предупредило о закрытии границ, деньги не возвращают.</t>
+  </si>
+  <si>
+    <t>Бывший муж скрывает свои доходы, чтобы уменьшить алименты.</t>
+  </si>
+  <si>
+    <t>В договоре аренды не указали сумму комиссии, теперь требуют доплату.</t>
+  </si>
+  <si>
+    <t>Банк списывает деньги за ненужные SMS-уведомления без моего согласия.</t>
+  </si>
+  <si>
+    <t>Финансовые споры</t>
+  </si>
+  <si>
+    <t>Мой патент на изобретение незаконно используют конкуренты.</t>
+  </si>
+  <si>
+    <t>После установки окон в квартире появилась плесень, компания вину отрицает.</t>
+  </si>
+  <si>
+    <t>Сотрудник ГИБДД выписал штраф без оснований, хочу оспорить.</t>
+  </si>
+  <si>
+    <t>Уволили из-за беременности, официально указали "сокращение штата".</t>
+  </si>
+  <si>
+    <t>Продали квартиру с обременением, о котором не предупредили.</t>
+  </si>
+  <si>
+    <t>Ребенка не берут в школу по месту прописки без объяснений.</t>
+  </si>
+  <si>
+    <t>Образовательные споры</t>
+  </si>
+  <si>
+    <t>Наследники оспаривают завещание, хотя оно заверено нотариусом.</t>
+  </si>
+  <si>
+    <t>В кредитном договоре мелким шрифтом указали скрытые комиссии.</t>
+  </si>
+  <si>
+    <t>Сосед установил забор, который перекрыл мне доступ к участку.</t>
+  </si>
+  <si>
+    <t>Медцентр неверно провел операцию, требует оплатить исправление.</t>
+  </si>
+  <si>
+    <t>Медицинские споры</t>
+  </si>
+  <si>
+    <t>Меня не включили в список акционеров после покупки акций.</t>
+  </si>
+  <si>
+    <t>В интернет-магазине сняли деньги, но заказ не доставили.</t>
+  </si>
+  <si>
+    <t>Учитель унижает ребенка в школе, администрация бездействует.</t>
+  </si>
+  <si>
+    <t>Судья отклоняет ходатайства без объяснения причин.</t>
+  </si>
+  <si>
+    <t>Судебные процедуры</t>
+  </si>
+  <si>
+    <t>Страховая занизила выплату за затопление квартиры.</t>
+  </si>
+  <si>
+    <t>Приставы списали деньги с карты без предупреждения.</t>
+  </si>
+  <si>
+    <t>Исполнительное производство</t>
+  </si>
+  <si>
+    <t>В кооперативе отказали в членстве без оснований.</t>
+  </si>
+  <si>
+    <t>Автосервис повредил двигатель при ремонте, отказывается компенсировать.</t>
+  </si>
+  <si>
+    <t>Мой логотип использовали в рекламе без моего разрешения.</t>
+  </si>
+  <si>
+    <t>Арендодатель выселяет меня до окончания срока договора.</t>
+  </si>
+  <si>
+    <t>В детском саду требуют неофициальные "пожертвования".</t>
+  </si>
+  <si>
+    <t>Мой контент на YouTube украли и монетизируют.</t>
+  </si>
+  <si>
+    <t>Авторское право</t>
+  </si>
+  <si>
+    <t>Банк требует погасить кредит, который я не оформлял.</t>
+  </si>
+  <si>
+    <t>При разделе бизнеса партнер присвоил общие активы.</t>
+  </si>
+  <si>
+    <t>Купленный ноутбук сломался через 5 дней.</t>
+  </si>
+  <si>
+    <t>Уволили из-за сокращения штата.</t>
+  </si>
+  <si>
+    <t>Страховая отказала в выплате за ДТП из-за просроченного полиса.</t>
+  </si>
+  <si>
+    <t>Сосед захватил 0.5 метра моего земельного участка.</t>
+  </si>
+  <si>
+    <t>В новостройке нет отопления, застройщик игнорирует претензии.</t>
+  </si>
+  <si>
+    <t>Интернет-магазин не доставил заказанную мебель, деньги не возвращают.</t>
+  </si>
+  <si>
+    <t>Работодатель не оплачивает командировочные расходы.</t>
+  </si>
+  <si>
+    <t>Купил диван с царапинами, магазин отказывается обменять.</t>
+  </si>
+  <si>
+    <t>Соседи сдают квартиру без договора, создают антисанитарию.</t>
+  </si>
+  <si>
+    <t>Бывший муж не участвует в оплате детского образования.</t>
+  </si>
+  <si>
+    <t>Банк блокирует карту без предупреждения.</t>
+  </si>
+  <si>
+    <t>Автосалон продал автомобиль с скрытыми повреждениями.</t>
+  </si>
+  <si>
+    <t>Застройщик не передает документы на квартиру после полной оплаты.</t>
+  </si>
+  <si>
+    <t>Коллекторы рассылают клеветнические сообщения в соцсетях.</t>
+  </si>
+  <si>
+    <t>В поликлинике отказали в бесплатном лечении по полису ОМС.</t>
+  </si>
+  <si>
+    <t>Партнер по ООО вывел активы компании в офшор.</t>
+  </si>
+  <si>
+    <t>Ученику снизили оценку из-за личной неприязни учителя.</t>
+  </si>
+  <si>
+    <t>Страховая затягивает выплату по страхованию жизни.</t>
+  </si>
+  <si>
+    <t>При покупке участка не указали сервитут на дорогу.</t>
+  </si>
+  <si>
+    <t>Плагиат моей музыки в рекламном ролике.</t>
+  </si>
+  <si>
+    <t>Арендодатель требует повысить плату за квартиру вне договора.</t>
+  </si>
+  <si>
+    <t>В договоре подряда не указали сроки ремонта.</t>
+  </si>
+  <si>
+    <t>Судья не учитывает доказательства по делу.</t>
+  </si>
+  <si>
+    <t>Банк начисляет проценты по кредиту, которого я не брал.</t>
+  </si>
+  <si>
+    <t>Медцентр требует оплатить анализы, входящие в программу ОМС.</t>
+  </si>
+  <si>
+    <t>Работодатель не оформляет официальный трудовой договор, требуя работать "в черную".</t>
+  </si>
+  <si>
+    <t>В салоне связи навязали платную подписку при покупке SIM-карты.</t>
+  </si>
+  <si>
+    <t>Бывшая жена препятствует моему участию в выборе школы для ребенка.</t>
+  </si>
+  <si>
+    <t>Банк требует погасить кредит с неправомерно завышенными процентами.</t>
+  </si>
+  <si>
+    <t>Автосервис установил неоригинальные запчасти, выдав их за новые.</t>
+  </si>
+  <si>
+    <t>Застройщик не устранил трещины в стенах новостройки после приемки.</t>
+  </si>
+  <si>
+    <t>Коллекторы присылают фальшивые судебные приказы по электронной почте.</t>
+  </si>
+  <si>
+    <t>Врач отказался выдать медицинскую справку для работы без дополнительной оплаты.</t>
+  </si>
+  <si>
+    <t>Партнер по бизнесу подделал подпись на договоре займа.</t>
+  </si>
+  <si>
+    <t>Учительница занижает оценки ребенку из-за конфликта с родителями.</t>
+  </si>
+  <si>
+    <t>Страховая компания требует повторные экспертизы для затягивания выплаты.</t>
+  </si>
+  <si>
+    <t>Сосед построил гараж на части моего земельного участка.</t>
+  </si>
+  <si>
+    <t>Мою фотографию использовали в рекламе без моего согласия.</t>
+  </si>
+  <si>
+    <t>Арендодатель запрещает держать домашних животных, хотя в договоре такого пункта нет.</t>
+  </si>
+  <si>
+    <t>Мастер по ремонту сантехники выполнил работу некачественно и исчез.</t>
+  </si>
+  <si>
+    <t>Судья игнорирует ходатайство о привлечении свидетеля.</t>
+  </si>
+  <si>
+    <t>Банк списал комиссию за обслуживание без предупреждения.</t>
+  </si>
+  <si>
+    <t>Клиника взимает плату за экстренную помощь, которая должна быть бесплатной по ОМС.</t>
+  </si>
+  <si>
+    <t>Соучредитель компании продал долю без согласия остальных партнеров.</t>
+  </si>
+  <si>
+    <t>Школа требует покупки учебников только у определенного поставщика.</t>
+  </si>
+  <si>
+    <t>После ДТП страховая отказала в выплате, сославшись на "неправильные" действия водителя.</t>
+  </si>
+  <si>
+    <t>При межевании участка сосед передвинул границы в свою пользу.</t>
+  </si>
+  <si>
+    <t>Мой дизайн упаковки скопировали для конкурирующего товара.</t>
+  </si>
+  <si>
+    <t>Управляющая компания не чинит протечку крыши, угрожающую имуществу.</t>
+  </si>
+  <si>
+    <t>В интернет-магазине прислали товар с истекшим сроком годности.</t>
+  </si>
+  <si>
+    <t>Судья не допускает моего адвоката к участию в заседании.</t>
+  </si>
+  <si>
+    <t>Банк требует погасить микрозайм, который я уже закрыл.</t>
+  </si>
+  <si>
+    <t>В частной клинике провели ненужную дорогостоящую процедуру без согласия.</t>
+  </si>
+  <si>
+    <t>Директор компании выписал премию только "своим" сотрудникам.</t>
+  </si>
+  <si>
+    <t>Ученика отстранили от уроков из-за внешнего вида (прическа, одежда).</t>
+  </si>
+  <si>
+    <t>Страховая отказывается возместить ущерб от залива квартиры, обвиняя в ненадлежащем хранении имущества.</t>
+  </si>
+  <si>
+    <t>Сосед самовольно вырубил деревья на моей территории.</t>
+  </si>
+  <si>
+    <t>Мой текст из блога опубликовали на другом сайте без указания авторства.</t>
+  </si>
+  <si>
+    <t>Арендодатель отключает электричество в квартире, чтобы вынудить съехать.</t>
+  </si>
+  <si>
+    <t>В мастерской по ремонту телефонов повредили экран, отказываются компенсировать.</t>
+  </si>
+  <si>
+    <t>Судья отклоняет апелляцию без рассмотрения по формальным причинам.</t>
+  </si>
+  <si>
+    <t>Банк требует подтверждения дохода для закрытия вклада.</t>
+  </si>
+  <si>
+    <t>В больнице выставили счет за анализы, включенные в программу госгарантий.</t>
+  </si>
+  <si>
+    <t>Акционер манипулирует собранием, блокируя важные решения.</t>
+  </si>
+  <si>
+    <t>Ученику отказали в участии в олимпиаде из-за плохого поведения в прошлом.</t>
+  </si>
+  <si>
+    <t>Страховая требует оригиналы документов, которые были утеряны при пожаре.</t>
+  </si>
+  <si>
+    <t>Сосед установил забор, перекрывающий доступ к водопроводному колодцу.</t>
+  </si>
+  <si>
+    <t>Мою песню использовали в фильме без лицензионного соглашения.</t>
+  </si>
+  <si>
+    <t>Управляющая компания завышает тарифы на коммунальные услуги.</t>
+  </si>
+  <si>
+    <t>В сервисном центре потеряли ноутбук, отправленный на гарантийный ремонт.</t>
+  </si>
+  <si>
+    <t>Судья не предоставляет копии процессуальных документов.</t>
+  </si>
+  <si>
+    <t>Банк начисляет штраф за просрочку, возникшую по их технической ошибке.</t>
+  </si>
+  <si>
+    <t>Ветеринарная клиника требует доплату за срочный вызов, не указанную в прайсе.</t>
+  </si>
+  <si>
+    <t>Партнер распространяет ложную информацию о компании среди клиентов.</t>
+  </si>
+  <si>
+    <t>Ребенка не допускают к занятиям из-за отсутствия прививок, не предусмотренных законом.</t>
+  </si>
+  <si>
+    <t>Страховая отказывает в выплате за кражу, утверждая, что дверь была не заблокирована.</t>
+  </si>
+  <si>
+    <t>Работодатель удерживает премию за отказ от работы в выходные.</t>
+  </si>
+  <si>
+    <t>В фитнес-клубе навязали пожизненную подписку с автоматическим списанием средств.</t>
+  </si>
+  <si>
+    <t>Бывший супруг скрывает наличие второго дохода для уменьшения алиментов.</t>
+  </si>
+  <si>
+    <t>Банк заблокировал вклад под предлогом "подозрительных операций" без объяснений.</t>
+  </si>
+  <si>
+    <t>Автодилер не передал ПТС после полной оплаты автомобиля.</t>
+  </si>
+  <si>
+    <t>Застройщик не провел вовремя инженерные коммуникации в новостройке.</t>
+  </si>
+  <si>
+    <t>Коллекторы угрожают распространить личные переписки в мессенджерах.</t>
+  </si>
+  <si>
+    <t>Стоматология требует доплату за анестезию, не указанную в смете.</t>
+  </si>
+  <si>
+    <t>Директор компании незаконно увеличил свою долю в уставном капитале.</t>
+  </si>
+  <si>
+    <t>Школа требует оплатить "добровольный" взнос на ремонт спортзала.</t>
+  </si>
+  <si>
+    <t>Страховая отказывается возместить ущерб от града, ссылаясь на "форс-мажор".</t>
+  </si>
+  <si>
+    <t>Сосед самовольно проложил дренажную канаву через мой участок.</t>
+  </si>
+  <si>
+    <t>Мой сценарий для видео использовали без упоминания авторства.</t>
+  </si>
+  <si>
+    <t>Управляющая компания не убирает снег во дворе, что привело к травме.</t>
+  </si>
+  <si>
+    <t>Курсы повышения квалификации оказались записью устаревших лекций.</t>
+  </si>
+  <si>
+    <t>Судья отказывает в переносе заседания из-за болезни ответчика.</t>
+  </si>
+  <si>
+    <t>Банк требует подтвердить источник средств для перевода родственнику.</t>
+  </si>
+  <si>
+    <t>В клинике эстетической медицины повредили кожу во время процедуры.</t>
+  </si>
+  <si>
+    <t>Партнер продал коммерческую тайну компании конкурентам.</t>
+  </si>
+  <si>
+    <t>Ученику запретили участвовать в школьной олимпиаде из-за низкой успеваемости.</t>
+  </si>
+  <si>
+    <t>Страховая занизила стоимость ремонта автомобиля после ДТП.</t>
+  </si>
+  <si>
+    <t>Сосед установил солнечные панели, которые затеняют мой огород.</t>
+  </si>
+  <si>
+    <t>Мой логотип использовали в мобильном приложении без лицензии.</t>
+  </si>
+  <si>
+    <t>Арендодатель взимает плату за "износ мебели" при выезде.</t>
+  </si>
+  <si>
+    <t>Доставка еды привезла холодные блюда, отказывается переделать заказ.</t>
+  </si>
+  <si>
+    <t>Судья не учитывает заключение независимого эксперта.</t>
+  </si>
+  <si>
+    <t>Банк навязывает кредитную карту при оформлении ипотеки.</t>
+  </si>
+  <si>
+    <t>Ветеринарная клиника неправильно диагностировала болезнь питомца.</t>
+  </si>
+  <si>
+    <t>Акционеры блокируют выплату дивидендов без объяснения причин.</t>
+  </si>
+  <si>
+    <t>Ученика исключили из кружка за критику преподавателя.</t>
+  </si>
+  <si>
+    <t>Страховая требует оплатить ремонт автомобиля, который уже был застрахован.</t>
+  </si>
+  <si>
+    <t>Сосед загрязняет общий пруд бытовыми отходами.</t>
+  </si>
+  <si>
+    <t>Мой патент на промышленный образец скопировали для серийного производства.</t>
+  </si>
+  <si>
+    <t>Управляющая компания не ремонтирует лифт, который регулярно ломается.</t>
+  </si>
+  <si>
+    <t>При заказе такси водитель потребовал доплату за "ночной тариф".</t>
+  </si>
+  <si>
+    <t>Судья отказывает в приобщении к делу аудиозаписей.</t>
+  </si>
+  <si>
+    <t>Банк списывает проценты по кредиту раньше установленной даты.</t>
+  </si>
+  <si>
+    <t>В клинике отказались выдать историю болезни для перевода в другую больницу.</t>
+  </si>
+  <si>
+    <t>Генеральный директор скрывает финансовую отчетность от учредителей.</t>
+  </si>
+  <si>
+    <t>Ученику не выдают аттестат из-за долга за школьные обеды.</t>
+  </si>
+  <si>
+    <t>Страховая отказывает в выплате за кражу велосипеда из подъезда.</t>
+  </si>
+  <si>
+    <t>Сосед установил забор, нарушающий правила противопожарной безопасности.</t>
+  </si>
+  <si>
+    <t>Мой дизайн интерьера скопировали для кафе без разрешения.</t>
+  </si>
+  <si>
+    <t>Арендодатель требует оплату за "ремонт" несуществующих повреждений.</t>
+  </si>
+  <si>
+    <t>В интернет-магазине подменили модель планшета на более дешевую.</t>
+  </si>
+  <si>
+    <t>Судья не допускает публику на открытое заседание.</t>
+  </si>
+  <si>
+    <t>Банк требует залог для открытия расчетного счета ИП.</t>
+  </si>
+  <si>
+    <t>В клинике пластической хирургии не предупредили о рисках операции.</t>
+  </si>
+  <si>
+    <t>Директор уволил сотрудника за отказ выполнять личные поручения.</t>
+  </si>
+  <si>
+    <t>Ученика заставляют убирать класс после уроков без согласия родителей.</t>
+  </si>
+  <si>
+    <t>Страховая отказывает в выплате за повреждение телефона в результате падения.</t>
+  </si>
+  <si>
+    <t>Сосед выкопал яму на границе участка, создав угрозу обрушения.</t>
+  </si>
+  <si>
+    <t>Мой стих использовали в рекламе без согласования.</t>
+  </si>
+  <si>
+    <t>Управляющая компания завышает плату за вывоз мусора.</t>
+  </si>
+  <si>
+    <t>Курьерская служба потеряла посылку с документами, отказывается компенсировать.</t>
+  </si>
+  <si>
+    <t>Судья отклоняет ходатайство о проведении почерковедческой экспертизы.</t>
+  </si>
+  <si>
+    <t>Банк требует справку о несудимости для оформления кредита.</t>
+  </si>
+  <si>
+    <t>В клинике отказали в приеме без предоплаты, хотя услуга входит в ОМС.</t>
+  </si>
+  <si>
+    <t>Партнер продал франшизу без согласия других владельцев бизнеса.</t>
+  </si>
+  <si>
+    <t>Ученика исключили из спортивной секции за отсутствие формы.</t>
+  </si>
+  <si>
+    <t>Страховая не возмещает ущерб от падения дерева на машину.</t>
+  </si>
+  <si>
+    <t>Сосед разводит костры на участке, дым мешает жильцам.</t>
+  </si>
+  <si>
+    <t>Мой код для приложения использовали в коммерческом проекте.</t>
+  </si>
+  <si>
+    <t>Арендодатель требует оплату за установку счетчиков, хотя это его обязанность.</t>
+  </si>
+  <si>
+    <t>В сервисе проката автомобилей сняли залог за несуществующие царапины.</t>
+  </si>
+  <si>
+    <t>Судья запретил вести аудиозапись заседания.</t>
+  </si>
+  <si>
+    <t>Банк требует подтвердить трудоустройство для закрытия депозита.</t>
+  </si>
+  <si>
+    <t>В клинике отказались выдать больничный для ухода за ребенком.</t>
+  </si>
+  <si>
+    <t>Директор компании уволил сотрудника за публикацию критики в соцсетях.</t>
+  </si>
+  <si>
+    <t>Ученика не допускают к экзаменам из-за пропусков по болезни.</t>
+  </si>
+  <si>
+    <t>Страховая требует оплатить франшизу за ремонт, хотя договор ее не предусматривает.</t>
+  </si>
+  <si>
+    <t>Сосед самовольно подключился к моему водопроводу.</t>
+  </si>
+  <si>
+    <t>Мой рецепт блюда использовали в ресторане без согласия.</t>
+  </si>
+  <si>
+    <t>Управляющая компания не чинит сломанные почтовые ящики.</t>
+  </si>
+  <si>
+    <t>В мастерской по ремонту часов повредили механизм, отказываются возмещать.</t>
+  </si>
+  <si>
+    <t>Судья не учитывает показания видеорегистратора в деле о ДТП.</t>
+  </si>
+  <si>
+    <t>Банк навязывает страховку жизни при оформлении вклада.</t>
+  </si>
+  <si>
+    <t>В клинике отказали в выдаче справки для водительских прав без дополнительных анализов.</t>
+  </si>
+  <si>
+    <t>Партнер передал конфиденциальные данные клиентов третьим лицам.</t>
+  </si>
+  <si>
+    <t>Ученика заставляют покупать форму только в определенном магазине.</t>
+  </si>
+  <si>
+    <t>Страховая отказывает в выплате за повреждение ноутбука в командировке.</t>
+  </si>
+  <si>
+    <t>Сосед построил сарай, закрывающий вид из моих окон.</t>
+  </si>
+  <si>
+    <t>Мой фотоколлаж использовали для рекламы тура без разрешения.</t>
+  </si>
+  <si>
+    <t>Арендодатель требует оплату за замену лампочек в квартире.</t>
+  </si>
+  <si>
+    <t>В онлайн-школе не предоставили доступ к оплаченному курсу.</t>
+  </si>
+  <si>
+    <t>Судья отказывает в привлечении специалиста для перевода документов.</t>
+  </si>
+  <si>
+    <t>Банк списывает деньги за SMS-информирование, которое я не подключал.</t>
+  </si>
+  <si>
+    <t>В клинике навязали платные анализы вместо бесплатных по ОМС.</t>
+  </si>
+  <si>
+    <t>Директор компании уволил сотрудника за отказ работать сверхурочно без оплаты.</t>
+  </si>
+  <si>
+    <t>Ученика не допускают к урокам из-за отсутствия медицинской справки после болезни.</t>
+  </si>
+  <si>
+    <t>Страховая требует документы, которые невозможно предоставить из-за форс-мажора.</t>
+  </si>
+  <si>
+    <t>Сосед загрязняет общий колодец химическими отходами.</t>
+  </si>
+  <si>
+    <t>Мой дизайн сайта скопировали для конкурентного проекта.</t>
+  </si>
+  <si>
+    <t>Управляющая компания не устраняет плесень в подвале жилого дома.</t>
+  </si>
+  <si>
+    <t>При заказе цветов доставили увядший букет, отказываются вернуть деньги.</t>
+  </si>
+  <si>
+    <t>Судья игнорирует ходатайство о проведении независимой экспертизы.</t>
+  </si>
+  <si>
+    <t>Банк требует справку о доходах за 5 лет для кредита на малый бизнес.</t>
+  </si>
+  <si>
+    <t>В клинике отказали в экстренной помощи без предоплаты.</t>
+  </si>
+  <si>
+    <t>Партнер по бизнесу незаконно сменил юридический адрес компании.</t>
+  </si>
+  <si>
+    <t>Ученика отчислили из колледжа за "академическую неуспеваемость" без предупреждения.</t>
+  </si>
+  <si>
+    <t>Страховая не возмещает ущерб от кражи денег из квартиры.</t>
+  </si>
+  <si>
+    <t>Сосед установил камеру наблюдения, направленную на мой участок.</t>
+  </si>
+  <si>
+    <t>Работодатель требует подписать допсоглашение о снижении зарплаты под угрозой увольнения.</t>
+  </si>
+  <si>
+    <t>В онлайн-кинотеатре автоматически продлили подписку без согласия пользователя.</t>
+  </si>
+  <si>
+    <t>Бывший супруг требует пересмотра алиментов, скрывая новую работу с высоким доходом.</t>
+  </si>
+  <si>
+    <t>Банк блокирует переводы на карты других банков без объяснения причин.</t>
+  </si>
+  <si>
+    <t>Автосалон отказался принимать автомобиль по гарантии из-за царапины на кузове.</t>
+  </si>
+  <si>
+    <t>Застройщик не передал ключи от квартиры из-за "технических недоделок".</t>
+  </si>
+  <si>
+    <t>Коллекторы присылают поддельные уведомления о судебных исках через SMS.</t>
+  </si>
+  <si>
+    <t>В клинике отказались выдать дубликат рецепта, потерянного по их вине.</t>
+  </si>
+  <si>
+    <t>Партнер по бизнесу оформил кредит на компанию без одобрения совета директоров.</t>
+  </si>
+  <si>
+    <t>Ученика не допускают к урокам физкультуры из-за отсутствия справки от частного врача.</t>
+  </si>
+  <si>
+    <t>Страховая требует фотоотчет повреждений для выплаты, но отклоняет все снимки.</t>
+  </si>
+  <si>
+    <t>Сосед самовольно установил забор на территории общего проезда.</t>
+  </si>
+  <si>
+    <t>Мой псевдоним использовали для продвижения товара без моего согласия.</t>
+  </si>
+  <si>
+    <t>Управляющая компания игнорирует жалобы на шум от ночного клуба в доме.</t>
+  </si>
+  <si>
+    <t>В сервисе аренды велосипедов сломалась тормозная система, клиенту отказали в компенсации.</t>
+  </si>
+  <si>
+    <t>Судья отказывает в привлечении переводчика для свидетеля-иностранца.</t>
+  </si>
+  <si>
+    <t>Банк навязывает платное SMS-информирование при оформлении дебетовой карты.</t>
+  </si>
+  <si>
+    <t>В клинике отказали в повторном приеме, сославшись на "отсутствие записи".</t>
+  </si>
+  <si>
+    <t>Директор компании уволил сотрудника за отказ участвовать в сомнительной схеме оптимизации налогов.</t>
+  </si>
+  <si>
+    <t>Ученика заставляют посещать платные факультативы для получения допуска к экзаменам.</t>
+  </si>
+  <si>
+    <t>Страховая отказывает в выплате за кражу из машины, утверждая, что окно было приоткрыто.</t>
+  </si>
+  <si>
+    <t>Сосед вырубил лесополосу на границе участка, нарушая экологические нормы.</t>
+  </si>
+  <si>
+    <t>Мой графический патент использовали для печати сувениров без лицензии.</t>
+  </si>
+  <si>
+    <t>Арендодатель требует оплатить "восстановительный ремонт" после проживания по договору.</t>
+  </si>
+  <si>
+    <t>В сервисе доставки еды подменили блюдо в заказе, отказавшись вернуть деньги.</t>
+  </si>
+  <si>
+    <t>Судья отклоняет ходатайство о вызове ключевого свидетеля.</t>
+  </si>
+  <si>
+    <t>Банк требует подтверждения гражданства для открытия вклада.</t>
+  </si>
+  <si>
+    <t>Ветеринарная клиника неверно провела операцию, приведя к гибели питомца.</t>
+  </si>
+  <si>
+    <t>Партнер перенаправил клиентскую базу на свой личный проект.</t>
+  </si>
+  <si>
+    <t>Ученика исключили из кружка робототехники из-за отсутствия "спонсорского взноса".</t>
+  </si>
+  <si>
+    <t>Страховая отказывает в возмещении ущерба от урагана, ссылаясь на "непредвиденные обстоятельства".</t>
+  </si>
+  <si>
+    <t>Сосед построил баню, нарушив санитарные нормы расстояния до колодца.</t>
+  </si>
+  <si>
+    <t>Мой авторский курс скопировали и продают на другой платформе.</t>
+  </si>
+  <si>
+    <t>Управляющая компания завышает тарифы на отопление без обоснования.</t>
+  </si>
+  <si>
+    <t>В магазине техники отказались принимать возврат планшета с заводским браком.</t>
+  </si>
+  <si>
+    <t>Судья запрещает использовать видеозаписи в качестве доказательств.</t>
+  </si>
+  <si>
+    <t>Банк требует справку о семейном положении для оформления кредита.</t>
+  </si>
+  <si>
+    <t>В клинике отказали в выдаче направления на МРТ, требуя платную альтернативу.</t>
+  </si>
+  <si>
+    <t>Директор компании уволил сотрудника за отказ подписать соглашение о неконкуренции.</t>
+  </si>
+  <si>
+    <t>Ученика заставляют покупать рабочие тетради только у определенного издательства.</t>
+  </si>
+  <si>
+    <t>Страховая не возмещает ущерб от падения смартфона в воду.</t>
+  </si>
+  <si>
+    <t>Сосед установил выгребную яму вблизи моего источника воды.</t>
+  </si>
+  <si>
+    <t>Мой дизайн упаковки для косметики использовали без разрешения.</t>
+  </si>
+  <si>
+    <t>Арендодатель требует оплатить "дезинфекцию" квартиры после съезда.</t>
+  </si>
+  <si>
+    <t>В сервисе проката оборудования сломалась техника, но клиента обвинили в поломке.</t>
+  </si>
+  <si>
+    <t>Судья игнорирует показания свидетелей, подтверждающих алиби.</t>
+  </si>
+  <si>
+    <t>Банк навязывает инвестиционные продукты при оформлении депозита.</t>
+  </si>
+  <si>
+    <t>В клинике отказали в выдаче медицинской карты для страховой компании.</t>
+  </si>
+  <si>
+    <t>Партнер по бизнесу заключил договор с аффилированной компанией в ущерб общим интересам.</t>
+  </si>
+  <si>
+    <t>Ученика не допускают к школьной экскурсии из-за отсутствия подписи в дневнике.</t>
+  </si>
+  <si>
+    <t>Страховая требует оплатить франшизу за ремонт квартиры, хотя в договоре это не указано.</t>
+  </si>
+  <si>
+    <t>Сосед самовольно расширил дорогу, уничтожив часть моего сада.</t>
+  </si>
+  <si>
+    <t>Мой патент на технологию обработки данных использовали без лицензии.</t>
+  </si>
+  <si>
+    <t>Управляющая компания не ремонтирует протекающую крышу, ссылаясь на отсутствие средств.</t>
+  </si>
+  <si>
+    <t>В мастерской по ремонту обуви испортили материал, отказавшись компенсировать ущерб.</t>
+  </si>
+  <si>
+    <t>Судья отказывает в приобщении к делу переписки из мессенджеров.</t>
+  </si>
+  <si>
+    <t>Банк требует заверения документов у нотариуса для перевода небольших сумм.</t>
+  </si>
+  <si>
+    <t>В клинике отказали в экстренной госпитализации из-за отсутствия полиса.</t>
+  </si>
+  <si>
+    <t>Директор компании уволил сотрудника за отказ работать в выходные без доплаты.</t>
+  </si>
+  <si>
+    <t>Ученика не допускают к занятиям из-за отсутствия школьной формы в день "свободного стиля".</t>
+  </si>
+  <si>
+    <t>Страховая отказывает в выплате за кражу ноутбука из офиса.</t>
+  </si>
+  <si>
+    <t>Сосед установил забор, препятствующий проезду к моему участку.</t>
+  </si>
+  <si>
+    <t>Мой стихотворный текст использовали в рекламном буклете без согласия.</t>
+  </si>
+  <si>
+    <t>Арендодатель взимает плату за "уборку подъезда" при выселении.</t>
+  </si>
+  <si>
+    <t>В сервисе доставки потеряли заказ с продуктами, отказавшись возместить ущерб.</t>
+  </si>
+  <si>
+    <t>Судья отклоняет ходатайство о переносе заседания из-за болезни истца.</t>
+  </si>
+  <si>
+    <t>Банк требует справку о состоянии здоровья для оформления кредита.</t>
+  </si>
+  <si>
+    <t>В клинике отказали в проведении плановой операции из-за "загруженности расписания".</t>
+  </si>
+  <si>
+    <t>Партнер по бизнесу продал долю в компании без уведомления других учредителей.</t>
+  </si>
+  <si>
+    <t>Ученика заставляют участвовать в платном школьном конкурсе под угрозой снижения оценки.</t>
+  </si>
+  <si>
+    <t>Страховая не возмещает ущерб от падения люстры из-за "неправильного монтажа".</t>
+  </si>
+  <si>
+    <t>Сосед загрязняет участок строительным мусором, нарушая санитарные нормы.</t>
+  </si>
+  <si>
+    <t>Мой алгоритм для анализа данных использовали в коммерческом ПО без разрешения.</t>
+  </si>
+  <si>
+    <t>Управляющая компания не чинит сломанные перила в подъезде.</t>
+  </si>
+  <si>
+    <t>В мастерской по ремонту электроники повредили плату, отказавшись признать вину.</t>
+  </si>
+  <si>
+    <t>Судья запрещает использование свидетельских показаний родственников.</t>
+  </si>
+  <si>
+    <t>Банк требует справку о кредитной истории из других банков для одобрения займа.</t>
+  </si>
+  <si>
+    <t>В клинике отказали в выдаче справки для спортивной секции без дополнительных обследований.</t>
+  </si>
+  <si>
+    <t>Директор компании уволил сотрудника за отказ подписать согласие на обработку персональных данных.</t>
+  </si>
+  <si>
+    <t>Ученика не допускают к урокам из-за отсутствия "благотворительного взноса".</t>
+  </si>
+  <si>
+    <t>Страховая отказывает в выплате за повреждение мебели при переезде.</t>
+  </si>
+  <si>
+    <t>Сосед самовольно выкорчевал деревья на границе участка, разрушив почву.</t>
+  </si>
+  <si>
+    <t>Мой дизайн ландшафта использовали для парка без авторского соглашения.</t>
+  </si>
+  <si>
+    <t>Арендодатель требует оплатить "ремонт" стен после снятия картин.</t>
+  </si>
+  <si>
+    <t>В сервисе аренды авто взимают плату за несуществующие царапины на кузове.</t>
+  </si>
+  <si>
+    <t>Судья отказывает в привлечении эксперта для оценки ущерба.</t>
+  </si>
+  <si>
+    <t>Банк требует подтверждения места жительства для открытия счета.</t>
+  </si>
+  <si>
+    <t>В клинике отказали в консультации специалиста без предварительной оплаты.</t>
+  </si>
+  <si>
+    <t>Партнер по бизнесу передал контракт конкурентам, нарушив договор о конфиденциальности.</t>
+  </si>
+  <si>
+    <t>Ученика исключили из спортивной команды за отказ покупать форму у спонсора школы.</t>
+  </si>
+  <si>
+    <t>Страховая не возмещает ущерб от затопления квартиры из-за "неправильной эксплуатации сантехники".</t>
+  </si>
+  <si>
+    <t>Сосед установил антенну, создающую помехи для телевизионного сигнала.</t>
   </si>
 </sst>
 </file>
@@ -205,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -213,7 +1155,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,19 +1469,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352DD244-730A-4502-9755-6DCF42E45699}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" customWidth="1"/>
-    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="123.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +1497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -564,153 +1505,2629 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
